--- a/StructureDefinition-Laboratory.xlsx
+++ b/StructureDefinition-Laboratory.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-10T14:10:05+00:00</t>
+    <t>2024-04-10T14:13:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Laboratory.xlsx
+++ b/StructureDefinition-Laboratory.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-10T14:13:50+00:00</t>
+    <t>2024-04-11T10:33:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -350,7 +350,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>https://dhis2.org/fhir/ValueSet/animal-class</t>
+    <t>https://dhis2.org/fhir/ValueSet/animal-class-vs</t>
   </si>
 </sst>
 </file>
@@ -681,7 +681,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="40.73046875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="43.43359375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-Laboratory.xlsx
+++ b/StructureDefinition-Laboratory.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-11T10:33:02+00:00</t>
+    <t>2024-04-11T10:34:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Laboratory.xlsx
+++ b/StructureDefinition-Laboratory.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-11T10:34:35+00:00</t>
+    <t>2024-04-11T13:02:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Laboratory.xlsx
+++ b/StructureDefinition-Laboratory.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="132">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-11T13:02:26+00:00</t>
+    <t>2024-04-12T09:40:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -337,20 +337,90 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Laboratory.animalClass</t>
+    <t>Laboratory.reportingDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date
+</t>
+  </si>
+  <si>
+    <t>Reporting Date</t>
+  </si>
+  <si>
+    <t>Laboratory.laboratory</t>
   </si>
   <si>
     <t xml:space="preserve">code
 </t>
   </si>
   <si>
-    <t>Animal Class</t>
-  </si>
-  <si>
     <t>required</t>
   </si>
   <si>
-    <t>https://dhis2.org/fhir/ValueSet/animal-class-vs</t>
+    <t>https://dhis2.org/fhir/ValueSet/laboratory-vs</t>
+  </si>
+  <si>
+    <t>Laboratory.otherLaboratory</t>
+  </si>
+  <si>
+    <t>Other Laboratory</t>
+  </si>
+  <si>
+    <t>Laboratory.labDisease</t>
+  </si>
+  <si>
+    <t>Lab Disease</t>
+  </si>
+  <si>
+    <t>https://dhis2.org/fhir/ValueSet/lab-diseases-vs</t>
+  </si>
+  <si>
+    <t>Laboratory.affectedSpecie</t>
+  </si>
+  <si>
+    <t>Affected specie. Note: can be more than one</t>
+  </si>
+  <si>
+    <t>https://dhis2.org/fhir/ValueSet/animal-species-vs</t>
+  </si>
+  <si>
+    <t>Laboratory.samplingDate</t>
+  </si>
+  <si>
+    <t>Sampling Date</t>
+  </si>
+  <si>
+    <t>Laboratory.sampleType</t>
+  </si>
+  <si>
+    <t>Sample Type</t>
+  </si>
+  <si>
+    <t>https://dhis2.org/fhir/ValueSet/sample-type-vs</t>
+  </si>
+  <si>
+    <t>Laboratory.testType</t>
+  </si>
+  <si>
+    <t>Test Type</t>
+  </si>
+  <si>
+    <t>https://dhis2.org/fhir/ValueSet/test-type-vs</t>
+  </si>
+  <si>
+    <t>Laboratory.resultDate</t>
+  </si>
+  <si>
+    <t>Result Date</t>
+  </si>
+  <si>
+    <t>Laboratory.testResult</t>
+  </si>
+  <si>
+    <t>Test Result</t>
+  </si>
+  <si>
+    <t>https://dhis2.org/fhir/ValueSet/test-result-vs</t>
   </si>
 </sst>
 </file>
@@ -647,7 +717,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK6"/>
+  <dimension ref="A1:AK15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -681,7 +751,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="43.43359375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="45.73046875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -1238,7 +1308,7 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>80</v>
@@ -1286,11 +1356,13 @@
         <v>71</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="Y6" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="Z6" t="s" s="2">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>71</v>
@@ -1311,7 +1383,7 @@
         <v>104</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>80</v>
@@ -1323,6 +1395,921 @@
         <v>71</v>
       </c>
       <c r="AK6" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="M7" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q7" s="2"/>
+      <c r="R7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X7" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="Y7" s="2"/>
+      <c r="Z7" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AA7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K8" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="M8" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q8" s="2"/>
+      <c r="R8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF8" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AG8" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK8" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K9" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q9" s="2"/>
+      <c r="R9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X9" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="Y9" s="2"/>
+      <c r="Z9" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AA9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF9" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AG9" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK9" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H10" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I10" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J10" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K10" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q10" s="2"/>
+      <c r="R10" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S10" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T10" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U10" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V10" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W10" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X10" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="Y10" s="2"/>
+      <c r="Z10" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AA10" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB10" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC10" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD10" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE10" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF10" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AG10" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH10" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AI10" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ10" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK10" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q11" s="2"/>
+      <c r="R11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF11" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK11" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q12" s="2"/>
+      <c r="R12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="Y12" s="2"/>
+      <c r="Z12" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q13" s="2"/>
+      <c r="R13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X13" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="Y13" s="2"/>
+      <c r="Z13" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q14" s="2"/>
+      <c r="R14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q15" s="2"/>
+      <c r="R15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="Y15" s="2"/>
+      <c r="Z15" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>71</v>
       </c>
     </row>

--- a/StructureDefinition-Laboratory.xlsx
+++ b/StructureDefinition-Laboratory.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-12T09:40:09+00:00</t>
+    <t>2024-04-12T11:15:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Laboratory.xlsx
+++ b/StructureDefinition-Laboratory.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-12T11:15:39+00:00</t>
+    <t>2024-04-16T08:17:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Laboratory.xlsx
+++ b/StructureDefinition-Laboratory.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-16T08:17:53+00:00</t>
+    <t>2024-04-16T08:28:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Laboratory.xlsx
+++ b/StructureDefinition-Laboratory.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-16T08:28:58+00:00</t>
+    <t>2024-04-16T18:12:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Laboratory.xlsx
+++ b/StructureDefinition-Laboratory.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-16T18:12:52+00:00</t>
+    <t>2024-04-17T08:50:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Laboratory.xlsx
+++ b/StructureDefinition-Laboratory.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-17T08:50:12+00:00</t>
+    <t>2024-04-17T10:25:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Laboratory.xlsx
+++ b/StructureDefinition-Laboratory.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://dhis2.org/fhir/StructureDefinition/Laboratory</t>
+    <t>https://example.org/fhir/StructureDefinition/Laboratory</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-17T10:25:03+00:00</t>
+    <t>2024-04-17T11:58:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -357,7 +357,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>https://dhis2.org/fhir/ValueSet/laboratory-vs</t>
+    <t>https://example.org/fhir/ValueSet/laboratory-vs</t>
   </si>
   <si>
     <t>Laboratory.otherLaboratory</t>
@@ -372,7 +372,7 @@
     <t>Lab Disease</t>
   </si>
   <si>
-    <t>https://dhis2.org/fhir/ValueSet/lab-diseases-vs</t>
+    <t>https://example.org/fhir/ValueSet/lab-diseases-vs</t>
   </si>
   <si>
     <t>Laboratory.affectedSpecie</t>
@@ -381,7 +381,7 @@
     <t>Affected specie. Note: can be more than one</t>
   </si>
   <si>
-    <t>https://dhis2.org/fhir/ValueSet/animal-species-vs</t>
+    <t>https://example.org/fhir/ValueSet/animal-species-vs</t>
   </si>
   <si>
     <t>Laboratory.samplingDate</t>
@@ -396,7 +396,7 @@
     <t>Sample Type</t>
   </si>
   <si>
-    <t>https://dhis2.org/fhir/ValueSet/sample-type-vs</t>
+    <t>https://example.org/fhir/ValueSet/sample-type-vs</t>
   </si>
   <si>
     <t>Laboratory.testType</t>
@@ -405,7 +405,7 @@
     <t>Test Type</t>
   </si>
   <si>
-    <t>https://dhis2.org/fhir/ValueSet/test-type-vs</t>
+    <t>https://example.org/fhir/ValueSet/test-type-vs</t>
   </si>
   <si>
     <t>Laboratory.resultDate</t>
@@ -420,7 +420,7 @@
     <t>Test Result</t>
   </si>
   <si>
-    <t>https://dhis2.org/fhir/ValueSet/test-result-vs</t>
+    <t>https://example.org/fhir/ValueSet/test-result-vs</t>
   </si>
 </sst>
 </file>
@@ -751,7 +751,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="45.73046875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="48.6953125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-Laboratory.xlsx
+++ b/StructureDefinition-Laboratory.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-17T11:58:12+00:00</t>
+    <t>2024-04-17T13:28:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Laboratory.xlsx
+++ b/StructureDefinition-Laboratory.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-17T13:28:15+00:00</t>
+    <t>2024-04-17T13:33:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-Laboratory.xlsx
+++ b/StructureDefinition-Laboratory.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://example.org/fhir/StructureDefinition/Laboratory</t>
+    <t>https://dhis2.org/fhir/StructureDefinition/Laboratory</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-17T13:33:19+00:00</t>
+    <t>2024-04-22T10:30:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -357,7 +357,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>https://example.org/fhir/ValueSet/laboratory-vs</t>
+    <t>https://dhis2.org/fhir/ValueSet/laboratory-vs</t>
   </si>
   <si>
     <t>Laboratory.otherLaboratory</t>
@@ -372,7 +372,7 @@
     <t>Lab Disease</t>
   </si>
   <si>
-    <t>https://example.org/fhir/ValueSet/lab-diseases-vs</t>
+    <t>https://dhis2.org/fhir/ValueSet/lab-diseases-vs</t>
   </si>
   <si>
     <t>Laboratory.affectedSpecie</t>
@@ -381,7 +381,7 @@
     <t>Affected specie. Note: can be more than one</t>
   </si>
   <si>
-    <t>https://example.org/fhir/ValueSet/animal-species-vs</t>
+    <t>https://dhis2.org/fhir/ValueSet/animal-species-vs</t>
   </si>
   <si>
     <t>Laboratory.samplingDate</t>
@@ -396,7 +396,7 @@
     <t>Sample Type</t>
   </si>
   <si>
-    <t>https://example.org/fhir/ValueSet/sample-type-vs</t>
+    <t>https://dhis2.org/fhir/ValueSet/sample-type-vs</t>
   </si>
   <si>
     <t>Laboratory.testType</t>
@@ -405,7 +405,7 @@
     <t>Test Type</t>
   </si>
   <si>
-    <t>https://example.org/fhir/ValueSet/test-type-vs</t>
+    <t>https://dhis2.org/fhir/ValueSet/test-type-vs</t>
   </si>
   <si>
     <t>Laboratory.resultDate</t>
@@ -420,7 +420,7 @@
     <t>Test Result</t>
   </si>
   <si>
-    <t>https://example.org/fhir/ValueSet/test-result-vs</t>
+    <t>https://dhis2.org/fhir/ValueSet/test-result-vs</t>
   </si>
 </sst>
 </file>
@@ -751,7 +751,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="48.6953125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="45.73046875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-Laboratory.xlsx
+++ b/StructureDefinition-Laboratory.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-22T10:30:53+00:00</t>
+    <t>2024-04-22T11:02:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
